--- a/Code/Results/Cases/Case_1_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_68/res_line/pl_mw.xlsx
@@ -427,25 +427,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1531189378349183</v>
+        <v>0.2460971570146455</v>
       </c>
       <c r="E2">
-        <v>0.1595118831255178</v>
+        <v>0.1773659978597841</v>
       </c>
       <c r="F2">
-        <v>1.185335068983974</v>
+        <v>1.012249720703679</v>
       </c>
       <c r="G2">
-        <v>0.9021414530862302</v>
+        <v>0.5272962014680189</v>
       </c>
       <c r="H2">
-        <v>0.4893024974716127</v>
+        <v>0.5812333897015094</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2083622882087894</v>
+        <v>0.1772330055721199</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.889901092186165</v>
+        <v>2.183072434228421</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -474,25 +474,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1410077997743286</v>
+        <v>0.2444676174135338</v>
       </c>
       <c r="E3">
-        <v>0.1430400100597637</v>
+        <v>0.1742912681867494</v>
       </c>
       <c r="F3">
-        <v>1.048988372686637</v>
+        <v>0.9831260700589439</v>
       </c>
       <c r="G3">
-        <v>0.7876649456344182</v>
+        <v>0.4999711970627061</v>
       </c>
       <c r="H3">
-        <v>0.4404263174093188</v>
+        <v>0.5723711798591182</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1842749841165414</v>
+        <v>0.1721769985553436</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.544498696186622</v>
+        <v>2.106238768013611</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -521,25 +521,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1337559595675373</v>
+        <v>0.2435737801816771</v>
       </c>
       <c r="E4">
-        <v>0.1331333896261597</v>
+        <v>0.1724976178116577</v>
       </c>
       <c r="F4">
-        <v>0.9667601569396709</v>
+        <v>0.965822117505752</v>
       </c>
       <c r="G4">
-        <v>0.7184458239437959</v>
+        <v>0.4835087855672953</v>
       </c>
       <c r="H4">
-        <v>0.4110629174893745</v>
+        <v>0.5672287518405454</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1697607266964454</v>
+        <v>0.1691764068401369</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.336029034302612</v>
+        <v>2.060343181411412</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -568,25 +568,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1308442182423804</v>
+        <v>0.2432364075528497</v>
       </c>
       <c r="E5">
-        <v>0.129144180644996</v>
+        <v>0.1717903946035548</v>
       </c>
       <c r="F5">
-        <v>0.9335911087825082</v>
+        <v>0.9589159623540695</v>
       </c>
       <c r="G5">
-        <v>0.690478510390875</v>
+        <v>0.4768793569706844</v>
       </c>
       <c r="H5">
-        <v>0.399246488245879</v>
+        <v>0.5652084079914204</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1639088015362447</v>
+        <v>0.1679797192786268</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.251894198675672</v>
+        <v>2.041962182227792</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -615,25 +615,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1303632668557668</v>
+        <v>0.2431820113789342</v>
       </c>
       <c r="E6">
-        <v>0.1284845434012034</v>
+        <v>0.1716743925400941</v>
       </c>
       <c r="F6">
-        <v>0.9281029464507213</v>
+        <v>0.957777978631924</v>
       </c>
       <c r="G6">
-        <v>0.6858482427377481</v>
+        <v>0.4757833212342462</v>
       </c>
       <c r="H6">
-        <v>0.3972930305121167</v>
+        <v>0.5648774770936456</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1629407009776997</v>
+        <v>0.1677825844649661</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.23797058790538</v>
+        <v>2.038929463360006</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -662,25 +662,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1337165186722018</v>
+        <v>0.2435691213926958</v>
       </c>
       <c r="E7">
-        <v>0.1330794016111376</v>
+        <v>0.1724879839688604</v>
       </c>
       <c r="F7">
-        <v>0.9663114970005324</v>
+        <v>0.9657283902091223</v>
       </c>
       <c r="G7">
-        <v>0.7180677121060342</v>
+        <v>0.483419058529023</v>
       </c>
       <c r="H7">
-        <v>0.4109029690091717</v>
+        <v>0.5672012000805466</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1696815598258183</v>
+        <v>0.1691601623405177</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.334891163417865</v>
+        <v>2.0600939860322</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1489029110422706</v>
+        <v>0.2455131683177569</v>
       </c>
       <c r="E8">
-        <v>0.1537867239289703</v>
+        <v>0.1762862718188565</v>
       </c>
       <c r="F8">
-        <v>1.137991960674867</v>
+        <v>1.002087880873759</v>
       </c>
       <c r="G8">
-        <v>0.8624298488489615</v>
+        <v>0.5178090186325619</v>
       </c>
       <c r="H8">
-        <v>0.472307511750742</v>
+        <v>0.5781156669492873</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1999957687034239</v>
+        <v>0.1754681284193538</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.77000182081423</v>
+        <v>2.156314253543428</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -756,25 +756,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1802896148002731</v>
+        <v>0.2501707657315677</v>
       </c>
       <c r="E9">
-        <v>0.1962456708432114</v>
+        <v>0.1844829058625095</v>
       </c>
       <c r="F9">
-        <v>1.488172839517347</v>
+        <v>1.077981530534075</v>
       </c>
       <c r="G9">
-        <v>1.155427723504175</v>
+        <v>0.5877591867548517</v>
       </c>
       <c r="H9">
-        <v>0.5984999628338699</v>
+        <v>0.6018910408742215</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2619445326613601</v>
+        <v>0.1886638921439214</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.656240636171731</v>
+        <v>2.355184202376734</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -803,25 +803,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2045434030682713</v>
+        <v>0.2541069149564663</v>
       </c>
       <c r="E10">
-        <v>0.22888320728282</v>
+        <v>0.1909625588303498</v>
       </c>
       <c r="F10">
-        <v>1.756261490648356</v>
+        <v>1.136556074637113</v>
       </c>
       <c r="G10">
-        <v>1.378872476700792</v>
+        <v>0.6407026906573208</v>
       </c>
       <c r="H10">
-        <v>0.695715292530366</v>
+        <v>0.6208072618303788</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3094632910164705</v>
+        <v>0.1988664766723076</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.334061651820377</v>
+        <v>2.507549276033956</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -850,25 +850,25 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2158883509782044</v>
+        <v>0.2560090365130065</v>
       </c>
       <c r="E11">
-        <v>0.2441206272103216</v>
+        <v>0.194010052836056</v>
       </c>
       <c r="F11">
-        <v>1.881197655326744</v>
+        <v>1.163818320499843</v>
       </c>
       <c r="G11">
-        <v>1.482823167424357</v>
+        <v>0.665129526491171</v>
       </c>
       <c r="H11">
-        <v>0.7411583116155498</v>
+        <v>0.629727949599868</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3316332389489531</v>
+        <v>0.2036191076019378</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.649830709952312</v>
+        <v>2.578233826267081</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -897,25 +897,25 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2202339123355443</v>
+        <v>0.2567453311371821</v>
       </c>
       <c r="E12">
-        <v>0.2499537267793315</v>
+        <v>0.1951784315297758</v>
       </c>
       <c r="F12">
-        <v>1.928993666692861</v>
+        <v>1.174230611703237</v>
       </c>
       <c r="G12">
-        <v>1.522565760700246</v>
+        <v>0.674428840240239</v>
       </c>
       <c r="H12">
-        <v>0.7585636166720917</v>
+        <v>0.633151365407457</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3401186719825091</v>
+        <v>0.2054348799556607</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.770619062971832</v>
+        <v>2.605198180176444</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2192957393570367</v>
+        <v>0.2565860458039424</v>
       </c>
       <c r="E13">
-        <v>0.2486945456079184</v>
+        <v>0.1949261616899847</v>
       </c>
       <c r="F13">
-        <v>1.918677394035072</v>
+        <v>1.171984194306717</v>
       </c>
       <c r="G13">
-        <v>1.513988837859699</v>
+        <v>0.6724238672802585</v>
       </c>
       <c r="H13">
-        <v>0.7548059433651702</v>
+        <v>0.6324120554357648</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3382869937969986</v>
+        <v>0.2050431063755838</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.744548695176945</v>
+        <v>2.599382130016465</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -991,25 +991,25 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.21624484336607</v>
+        <v>0.2560692914179441</v>
       </c>
       <c r="E14">
-        <v>0.2445992152712861</v>
+        <v>0.1941058882924764</v>
       </c>
       <c r="F14">
-        <v>1.885119790698553</v>
+        <v>1.164673168681375</v>
       </c>
       <c r="G14">
-        <v>1.486084937668096</v>
+        <v>0.6658935957561596</v>
       </c>
       <c r="H14">
-        <v>0.7425861765709385</v>
+        <v>0.6300086875166357</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3323294697996317</v>
+        <v>0.2037681703561276</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.659742837884835</v>
+        <v>2.58044823741966</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1038,25 +1038,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2143826691486197</v>
+        <v>0.2557548473064344</v>
       </c>
       <c r="E15">
-        <v>0.242099128557399</v>
+        <v>0.1936053170410972</v>
       </c>
       <c r="F15">
-        <v>1.864629773240139</v>
+        <v>1.160206502899541</v>
       </c>
       <c r="G15">
-        <v>1.469043792848396</v>
+        <v>0.6619000535302746</v>
       </c>
       <c r="H15">
-        <v>0.7351275522492529</v>
+        <v>0.6285424593910989</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3286923853178791</v>
+        <v>0.2029893268937144</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.607959385538095</v>
+        <v>2.568876427918497</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1085,25 +1085,25 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2038086458944832</v>
+        <v>0.2539848482162341</v>
       </c>
       <c r="E16">
-        <v>0.227895836757618</v>
+        <v>0.19076540734887</v>
       </c>
       <c r="F16">
-        <v>1.748161340362458</v>
+        <v>1.134786829026837</v>
       </c>
       <c r="G16">
-        <v>1.372129376748006</v>
+        <v>0.6391132448457597</v>
       </c>
       <c r="H16">
-        <v>0.6927718286114839</v>
+        <v>0.6202306213540965</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.308026451446068</v>
+        <v>0.1985581258946922</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.313586969960625</v>
+        <v>2.502957520220775</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,25 +1132,25 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1974048620989777</v>
+        <v>0.2529275540797755</v>
       </c>
       <c r="E17">
-        <v>0.2192872836229327</v>
+        <v>0.1890487917632555</v>
       </c>
       <c r="F17">
-        <v>1.677514067573796</v>
+        <v>1.119350579213631</v>
       </c>
       <c r="G17">
-        <v>1.313298118684571</v>
+        <v>0.62522211588049</v>
       </c>
       <c r="H17">
-        <v>0.667115070039813</v>
+        <v>0.6152123840539048</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2954975450805506</v>
+        <v>0.1958682884033607</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.135000334773451</v>
+        <v>2.462870201680346</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,25 +1179,25 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1937506211045985</v>
+        <v>0.2523299280996838</v>
       </c>
       <c r="E18">
-        <v>0.2143721760577364</v>
+        <v>0.1880708399873043</v>
       </c>
       <c r="F18">
-        <v>1.637156555454013</v>
+        <v>1.110530072250768</v>
       </c>
       <c r="G18">
-        <v>1.279673773504584</v>
+        <v>0.6172645418874367</v>
       </c>
       <c r="H18">
-        <v>0.6524713348050852</v>
+        <v>0.6123557350697695</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2883426539193863</v>
+        <v>0.1943316508988744</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.032971412711845</v>
+        <v>2.43994224790481</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,25 +1226,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1925182113542121</v>
+        <v>0.252129387036959</v>
       </c>
       <c r="E19">
-        <v>0.2127140406216768</v>
+        <v>0.1877413368565612</v>
       </c>
       <c r="F19">
-        <v>1.62353811294831</v>
+        <v>1.107553563374211</v>
       </c>
       <c r="G19">
-        <v>1.268324501808735</v>
+        <v>0.6145757763602546</v>
       </c>
       <c r="H19">
-        <v>0.6475320571994132</v>
+        <v>0.6113936264415543</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2859286525590932</v>
+        <v>0.1938131718419669</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.998540346904406</v>
+        <v>2.432201422091566</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,25 +1273,25 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1980835172557818</v>
+        <v>0.2530390182404858</v>
       </c>
       <c r="E20">
-        <v>0.2201998735286423</v>
+        <v>0.1892305555620197</v>
       </c>
       <c r="F20">
-        <v>1.685005534589635</v>
+        <v>1.120987789708067</v>
       </c>
       <c r="G20">
-        <v>1.319538345830068</v>
+        <v>0.6266975129547916</v>
       </c>
       <c r="H20">
-        <v>0.6698343932673652</v>
+        <v>0.6157435095531412</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2968258748096275</v>
+        <v>0.1961535407199193</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.153938824038676</v>
+        <v>2.467124190622883</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2171395837637817</v>
+        <v>0.2562206407072125</v>
       </c>
       <c r="E21">
-        <v>0.2458003449194521</v>
+        <v>0.1943464327932958</v>
       </c>
       <c r="F21">
-        <v>1.894962821182602</v>
+        <v>1.16681818736771</v>
       </c>
       <c r="G21">
-        <v>1.494270312239252</v>
+        <v>0.6678103529509372</v>
       </c>
       <c r="H21">
-        <v>0.7461698883874988</v>
+        <v>0.6307133845864143</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3340768031839332</v>
+        <v>0.2041422140131885</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.68461821219762</v>
+        <v>2.586004214704246</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,25 +1367,25 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2298846520989315</v>
+        <v>0.2583932720500854</v>
       </c>
       <c r="E22">
-        <v>0.2629026990454619</v>
+        <v>0.1977736478161489</v>
       </c>
       <c r="F22">
-        <v>2.03504145007571</v>
+        <v>1.197287856512375</v>
       </c>
       <c r="G22">
-        <v>1.610700433453587</v>
+        <v>0.6949679831682829</v>
       </c>
       <c r="H22">
-        <v>0.7972194826317605</v>
+        <v>0.6407613510683916</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3589535494287333</v>
+        <v>0.2094568644433963</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.038598475936965</v>
+        <v>2.664851336729839</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2230541201620895</v>
+        <v>0.2572251772793663</v>
       </c>
       <c r="E23">
-        <v>0.2537384736073349</v>
+        <v>0.1959368213279973</v>
       </c>
       <c r="F23">
-        <v>1.959997104234887</v>
+        <v>1.180978317030494</v>
       </c>
       <c r="G23">
-        <v>1.548338395312243</v>
+        <v>0.6804470454144109</v>
       </c>
       <c r="H23">
-        <v>0.7698595178198957</v>
+        <v>0.6353743924378819</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3456240151385259</v>
+        <v>0.2066117615123773</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.848966516187204</v>
+        <v>2.622663646788794</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,25 +1461,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1977766123243043</v>
+        <v>0.2529885934366689</v>
       </c>
       <c r="E24">
-        <v>0.2197871860418275</v>
+        <v>0.1891483522606663</v>
       </c>
       <c r="F24">
-        <v>1.681617841261087</v>
+        <v>1.120247438639609</v>
       </c>
       <c r="G24">
-        <v>1.316716524289717</v>
+        <v>0.6260303967945902</v>
       </c>
       <c r="H24">
-        <v>0.6686046565761217</v>
+        <v>0.615503299234291</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2962251877687549</v>
+        <v>0.1960245476697366</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.145374741366197</v>
+        <v>2.465200592235419</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,25 +1508,25 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1716055073937355</v>
+        <v>0.248820380564311</v>
       </c>
       <c r="E25">
-        <v>0.1845301940913444</v>
+        <v>0.1821852480318924</v>
       </c>
       <c r="F25">
-        <v>1.391739614297222</v>
+        <v>1.056956987943408</v>
       </c>
       <c r="G25">
-        <v>1.074893072235852</v>
+        <v>0.5685648655341993</v>
       </c>
       <c r="H25">
-        <v>0.5636466684065056</v>
+        <v>0.595204980215243</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2448706425912945</v>
+        <v>0.1850052413104351</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.412309648979942</v>
+        <v>2.300289579330752</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_68/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_68/res_line/pl_mw.xlsx
@@ -427,25 +427,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2460971570146455</v>
+        <v>0.153118937834904</v>
       </c>
       <c r="E2">
-        <v>0.1773659978597841</v>
+        <v>0.1595118831255071</v>
       </c>
       <c r="F2">
-        <v>1.012249720703679</v>
+        <v>1.185335068983974</v>
       </c>
       <c r="G2">
-        <v>0.5272962014680189</v>
+        <v>0.9021414530862018</v>
       </c>
       <c r="H2">
-        <v>0.5812333897015094</v>
+        <v>0.4893024974717122</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1772330055721199</v>
+        <v>0.2083622882087894</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.183072434228421</v>
+        <v>2.889901092186193</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -474,25 +474,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2444676174135338</v>
+        <v>0.1410077997743286</v>
       </c>
       <c r="E3">
-        <v>0.1742912681867494</v>
+        <v>0.1430400100597424</v>
       </c>
       <c r="F3">
-        <v>0.9831260700589439</v>
+        <v>1.048988372686637</v>
       </c>
       <c r="G3">
-        <v>0.4999711970627061</v>
+        <v>0.7876649456344325</v>
       </c>
       <c r="H3">
-        <v>0.5723711798591182</v>
+        <v>0.440426317409333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1721769985553436</v>
+        <v>0.1842749841166054</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.106238768013611</v>
+        <v>2.544498696186622</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -521,25 +521,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2435737801816771</v>
+        <v>0.133755959567651</v>
       </c>
       <c r="E4">
-        <v>0.1724976178116577</v>
+        <v>0.1331333896261597</v>
       </c>
       <c r="F4">
-        <v>0.965822117505752</v>
+        <v>0.9667601569396709</v>
       </c>
       <c r="G4">
-        <v>0.4835087855672953</v>
+        <v>0.7184458239437959</v>
       </c>
       <c r="H4">
-        <v>0.5672287518405454</v>
+        <v>0.4110629174893745</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1691764068401369</v>
+        <v>0.169760726696552</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.060343181411412</v>
+        <v>2.336029034302555</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -568,25 +568,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2432364075528497</v>
+        <v>0.1308442182423093</v>
       </c>
       <c r="E5">
-        <v>0.1717903946035548</v>
+        <v>0.1291441806449889</v>
       </c>
       <c r="F5">
-        <v>0.9589159623540695</v>
+        <v>0.9335911087825224</v>
       </c>
       <c r="G5">
-        <v>0.4768793569706844</v>
+        <v>0.690478510390875</v>
       </c>
       <c r="H5">
-        <v>0.5652084079914204</v>
+        <v>0.399246488245879</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1679797192786268</v>
+        <v>0.1639088015362375</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.041962182227792</v>
+        <v>2.251894198675615</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -615,25 +615,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2431820113789342</v>
+        <v>0.1303632668558876</v>
       </c>
       <c r="E6">
-        <v>0.1716743925400941</v>
+        <v>0.1284845434012034</v>
       </c>
       <c r="F6">
-        <v>0.957777978631924</v>
+        <v>0.9281029464507213</v>
       </c>
       <c r="G6">
-        <v>0.4757833212342462</v>
+        <v>0.6858482427377197</v>
       </c>
       <c r="H6">
-        <v>0.5648774770936456</v>
+        <v>0.3972930305121167</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1677825844649661</v>
+        <v>0.1629407009775861</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.038929463360006</v>
+        <v>2.23797058790538</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -662,25 +662,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2435691213926958</v>
+        <v>0.1337165186722018</v>
       </c>
       <c r="E7">
-        <v>0.1724879839688604</v>
+        <v>0.1330794016111341</v>
       </c>
       <c r="F7">
-        <v>0.9657283902091223</v>
+        <v>0.9663114970005324</v>
       </c>
       <c r="G7">
-        <v>0.483419058529023</v>
+        <v>0.7180677121059631</v>
       </c>
       <c r="H7">
-        <v>0.5672012000805466</v>
+        <v>0.4109029690091717</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1691601623405177</v>
+        <v>0.1696815598257473</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.0600939860322</v>
+        <v>2.334891163417865</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2455131683177569</v>
+        <v>0.1489029110423985</v>
       </c>
       <c r="E8">
-        <v>0.1762862718188565</v>
+        <v>0.1537867239289881</v>
       </c>
       <c r="F8">
-        <v>1.002087880873759</v>
+        <v>1.137991960674867</v>
       </c>
       <c r="G8">
-        <v>0.5178090186325619</v>
+        <v>0.8624298488489757</v>
       </c>
       <c r="H8">
-        <v>0.5781156669492873</v>
+        <v>0.472307511750742</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1754681284193538</v>
+        <v>0.1999957687034311</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.156314253543428</v>
+        <v>2.770001820814201</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -756,25 +756,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2501707657315677</v>
+        <v>0.1802896148002731</v>
       </c>
       <c r="E9">
-        <v>0.1844829058625095</v>
+        <v>0.196245670843183</v>
       </c>
       <c r="F9">
-        <v>1.077981530534075</v>
+        <v>1.488172839517347</v>
       </c>
       <c r="G9">
-        <v>0.5877591867548517</v>
+        <v>1.155427723504204</v>
       </c>
       <c r="H9">
-        <v>0.6018910408742215</v>
+        <v>0.5984999628338699</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1886638921439214</v>
+        <v>0.2619445326614454</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.355184202376734</v>
+        <v>3.656240636171731</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -803,25 +803,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2541069149564663</v>
+        <v>0.2045434030684845</v>
       </c>
       <c r="E10">
-        <v>0.1909625588303498</v>
+        <v>0.22888320728282</v>
       </c>
       <c r="F10">
-        <v>1.136556074637113</v>
+        <v>1.75626149064837</v>
       </c>
       <c r="G10">
-        <v>0.6407026906573208</v>
+        <v>1.378872476700764</v>
       </c>
       <c r="H10">
-        <v>0.6208072618303788</v>
+        <v>0.6957152925302523</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1988664766723076</v>
+        <v>0.3094632910164705</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.507549276033956</v>
+        <v>4.334061651820377</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -850,25 +850,25 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2560090365130065</v>
+        <v>0.2158883509783038</v>
       </c>
       <c r="E11">
-        <v>0.194010052836056</v>
+        <v>0.2441206272103287</v>
       </c>
       <c r="F11">
-        <v>1.163818320499843</v>
+        <v>1.881197655326744</v>
       </c>
       <c r="G11">
-        <v>0.665129526491171</v>
+        <v>1.482823167424328</v>
       </c>
       <c r="H11">
-        <v>0.629727949599868</v>
+        <v>0.7411583116155498</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2036191076019378</v>
+        <v>0.3316332389489673</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.578233826267081</v>
+        <v>4.649830709952312</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -897,25 +897,25 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2567453311371821</v>
+        <v>0.2202339123354307</v>
       </c>
       <c r="E12">
-        <v>0.1951784315297758</v>
+        <v>0.2499537267793386</v>
       </c>
       <c r="F12">
-        <v>1.174230611703237</v>
+        <v>1.928993666692861</v>
       </c>
       <c r="G12">
-        <v>0.674428840240239</v>
+        <v>1.522565760700274</v>
       </c>
       <c r="H12">
-        <v>0.633151365407457</v>
+        <v>0.758563616671978</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2054348799556607</v>
+        <v>0.340118671982566</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.605198180176444</v>
+        <v>4.770619062971832</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2565860458039424</v>
+        <v>0.2192957393569372</v>
       </c>
       <c r="E13">
-        <v>0.1949261616899847</v>
+        <v>0.2486945456079326</v>
       </c>
       <c r="F13">
-        <v>1.171984194306717</v>
+        <v>1.9186773940351</v>
       </c>
       <c r="G13">
-        <v>0.6724238672802585</v>
+        <v>1.513988837859756</v>
       </c>
       <c r="H13">
-        <v>0.6324120554357648</v>
+        <v>0.7548059433651702</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2050431063755838</v>
+        <v>0.3382869937969843</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.599382130016465</v>
+        <v>4.744548695177002</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -991,25 +991,25 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2560692914179441</v>
+        <v>0.216244843365871</v>
       </c>
       <c r="E14">
-        <v>0.1941058882924764</v>
+        <v>0.244599215271279</v>
       </c>
       <c r="F14">
-        <v>1.164673168681375</v>
+        <v>1.885119790698539</v>
       </c>
       <c r="G14">
-        <v>0.6658935957561596</v>
+        <v>1.486084937668068</v>
       </c>
       <c r="H14">
-        <v>0.6300086875166357</v>
+        <v>0.7425861765710238</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2037681703561276</v>
+        <v>0.3323294697996033</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.58044823741966</v>
+        <v>4.659742837884721</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1038,25 +1038,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2557548473064344</v>
+        <v>0.214382669148705</v>
       </c>
       <c r="E15">
-        <v>0.1936053170410972</v>
+        <v>0.2420991285574203</v>
       </c>
       <c r="F15">
-        <v>1.160206502899541</v>
+        <v>1.864629773240139</v>
       </c>
       <c r="G15">
-        <v>0.6619000535302746</v>
+        <v>1.469043792848424</v>
       </c>
       <c r="H15">
-        <v>0.6285424593910989</v>
+        <v>0.7351275522492813</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2029893268937144</v>
+        <v>0.3286923853179218</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.568876427918497</v>
+        <v>4.607959385537981</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1085,25 +1085,25 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2539848482162341</v>
+        <v>0.2038086458947674</v>
       </c>
       <c r="E16">
-        <v>0.19076540734887</v>
+        <v>0.2278958367576394</v>
       </c>
       <c r="F16">
-        <v>1.134786829026837</v>
+        <v>1.748161340362458</v>
       </c>
       <c r="G16">
-        <v>0.6391132448457597</v>
+        <v>1.372129376747921</v>
       </c>
       <c r="H16">
-        <v>0.6202306213540965</v>
+        <v>0.6927718286114555</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1985581258946922</v>
+        <v>0.308026451446068</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.502957520220775</v>
+        <v>4.313586969960681</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1132,25 +1132,25 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2529275540797755</v>
+        <v>0.197404862098864</v>
       </c>
       <c r="E17">
-        <v>0.1890487917632555</v>
+        <v>0.2192872836229682</v>
       </c>
       <c r="F17">
-        <v>1.119350579213631</v>
+        <v>1.677514067573824</v>
       </c>
       <c r="G17">
-        <v>0.62522211588049</v>
+        <v>1.313298118684543</v>
       </c>
       <c r="H17">
-        <v>0.6152123840539048</v>
+        <v>0.6671150700398414</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1958682884033607</v>
+        <v>0.2954975450804795</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.462870201680346</v>
+        <v>4.135000334773451</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1179,25 +1179,25 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2523299280996838</v>
+        <v>0.1937506211045701</v>
       </c>
       <c r="E18">
-        <v>0.1880708399873043</v>
+        <v>0.2143721760577648</v>
       </c>
       <c r="F18">
-        <v>1.110530072250768</v>
+        <v>1.637156555454013</v>
       </c>
       <c r="G18">
-        <v>0.6172645418874367</v>
+        <v>1.279673773504641</v>
       </c>
       <c r="H18">
-        <v>0.6123557350697695</v>
+        <v>0.6524713348050852</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1943316508988744</v>
+        <v>0.2883426539194289</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.43994224790481</v>
+        <v>4.032971412711902</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1226,25 +1226,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.252129387036959</v>
+        <v>0.1925182113542121</v>
       </c>
       <c r="E19">
-        <v>0.1877413368565612</v>
+        <v>0.2127140406216625</v>
       </c>
       <c r="F19">
-        <v>1.107553563374211</v>
+        <v>1.623538112948324</v>
       </c>
       <c r="G19">
-        <v>0.6145757763602546</v>
+        <v>1.268324501808706</v>
       </c>
       <c r="H19">
-        <v>0.6113936264415543</v>
+        <v>0.6475320571995269</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1938131718419669</v>
+        <v>0.2859286525591074</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.432201422091566</v>
+        <v>3.998540346904463</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1273,25 +1273,25 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2530390182404858</v>
+        <v>0.1980835172558812</v>
       </c>
       <c r="E20">
-        <v>0.1892305555620197</v>
+        <v>0.2201998735285855</v>
       </c>
       <c r="F20">
-        <v>1.120987789708067</v>
+        <v>1.685005534589649</v>
       </c>
       <c r="G20">
-        <v>0.6266975129547916</v>
+        <v>1.319538345830125</v>
       </c>
       <c r="H20">
-        <v>0.6157435095531412</v>
+        <v>0.6698343932673652</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1961535407199193</v>
+        <v>0.2968258748095423</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.467124190622883</v>
+        <v>4.153938824038676</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1320,25 +1320,25 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2562206407072125</v>
+        <v>0.2171395837635686</v>
       </c>
       <c r="E21">
-        <v>0.1943464327932958</v>
+        <v>0.2458003449194521</v>
       </c>
       <c r="F21">
-        <v>1.16681818736771</v>
+        <v>1.894962821182602</v>
       </c>
       <c r="G21">
-        <v>0.6678103529509372</v>
+        <v>1.494270312239252</v>
       </c>
       <c r="H21">
-        <v>0.6307133845864143</v>
+        <v>0.7461698883874988</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2041422140131885</v>
+        <v>0.33407680318399</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.586004214704246</v>
+        <v>4.684618212197563</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1367,25 +1367,25 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2583932720500854</v>
+        <v>0.229884652099031</v>
       </c>
       <c r="E22">
-        <v>0.1977736478161489</v>
+        <v>0.2629026990454193</v>
       </c>
       <c r="F22">
-        <v>1.197287856512375</v>
+        <v>2.035041450075695</v>
       </c>
       <c r="G22">
-        <v>0.6949679831682829</v>
+        <v>1.610700433453559</v>
       </c>
       <c r="H22">
-        <v>0.6407613510683916</v>
+        <v>0.7972194826316468</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2094568644433963</v>
+        <v>0.3589535494288185</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.664851336729839</v>
+        <v>5.038598475936908</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1414,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2572251772793663</v>
+        <v>0.2230541201618621</v>
       </c>
       <c r="E23">
-        <v>0.1959368213279973</v>
+        <v>0.2537384736073136</v>
       </c>
       <c r="F23">
-        <v>1.180978317030494</v>
+        <v>1.959997104234901</v>
       </c>
       <c r="G23">
-        <v>0.6804470454144109</v>
+        <v>1.548338395312157</v>
       </c>
       <c r="H23">
-        <v>0.6353743924378819</v>
+        <v>0.7698595178198957</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2066117615123773</v>
+        <v>0.3456240151385686</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.622663646788794</v>
+        <v>4.848966516187147</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,25 +1461,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2529885934366689</v>
+        <v>0.1977766123242191</v>
       </c>
       <c r="E24">
-        <v>0.1891483522606663</v>
+        <v>0.2197871860418132</v>
       </c>
       <c r="F24">
-        <v>1.120247438639609</v>
+        <v>1.681617841261087</v>
       </c>
       <c r="G24">
-        <v>0.6260303967945902</v>
+        <v>1.316716524289717</v>
       </c>
       <c r="H24">
-        <v>0.615503299234291</v>
+        <v>0.6686046565761501</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1960245476697366</v>
+        <v>0.2962251877686981</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.465200592235419</v>
+        <v>4.14537474136614</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1508,25 +1508,25 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.248820380564311</v>
+        <v>0.1716055073937355</v>
       </c>
       <c r="E25">
-        <v>0.1821852480318924</v>
+        <v>0.184530194091316</v>
       </c>
       <c r="F25">
-        <v>1.056956987943408</v>
+        <v>1.391739614297208</v>
       </c>
       <c r="G25">
-        <v>0.5685648655341993</v>
+        <v>1.074893072235881</v>
       </c>
       <c r="H25">
-        <v>0.595204980215243</v>
+        <v>0.5636466684063919</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1850052413104351</v>
+        <v>0.2448706425912519</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.300289579330752</v>
+        <v>3.412309648979942</v>
       </c>
     </row>
   </sheetData>
